--- a/project/TBM/data/外研BOM衍生需求导入模板.xlsx
+++ b/project/TBM/data/外研BOM衍生需求导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="衍生BOM制作需求" sheetId="1" r:id="rId1"/>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1230,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
